--- a/RCE/RPMtoDelta.xlsx
+++ b/RCE/RPMtoDelta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexa\Documents\VSCode\Research\PMRModel\RCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58ADB946-EA0D-4293-A0D2-AC3F966421EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D11E933-8054-4B1C-B5CC-C31D5E6FA8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="7935" windowWidth="24240" windowHeight="13140" xr2:uid="{5C0E03CF-3BAB-4377-A482-84AC69AF0267}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$I$38,Sheet1!$I$39</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$I$3,Sheet1!$I$4</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
@@ -30,7 +30,7 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$H$45</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$H$11</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
@@ -251,7 +251,7 @@
                   <c:v>2.1999999999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5999999999999999E-5</c:v>
+                  <c:v>1.5800000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.2E-5</c:v>
@@ -328,19 +328,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.7815784699424929E-5</c:v>
+                  <c:v>2.7809040326918163E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.055131993333136E-5</c:v>
+                  <c:v>2.0514153809208937E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5184067448252677E-5</c:v>
+                  <c:v>1.5132866922435011E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2720197954440458E-5</c:v>
+                  <c:v>1.2665685999162975E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1218544843884073E-5</c:v>
+                  <c:v>1.1163202899908382E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3934,8 +3934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24714F3-5E9E-4775-9E72-958E1772AAEE}">
   <dimension ref="B2:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L59" sqref="L59"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3960,7 +3960,7 @@
         <v>4</v>
       </c>
       <c r="I3">
-        <v>2.0779582406580378E-4</v>
+        <v>2.0992039205430831E-4</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
@@ -3980,7 +3980,7 @@
         <v>7</v>
       </c>
       <c r="I4">
-        <v>0.43667274971655146</v>
+        <v>0.43893431345751921</v>
       </c>
       <c r="O4" t="s">
         <v>2</v>
@@ -4008,7 +4008,7 @@
       </c>
       <c r="F5">
         <f>$I$3/(E5^0.59)</f>
-        <v>0.18519822313892223</v>
+        <v>0.18709174635180584</v>
       </c>
       <c r="O5" t="s">
         <v>0</v>
@@ -4041,11 +4041,11 @@
       </c>
       <c r="F6">
         <f>$I$3/(E6^$I$4)</f>
-        <v>2.7815784699424929E-5</v>
+        <v>2.7809040326918163E-5</v>
       </c>
       <c r="H6" s="1">
         <f>(C6-F6)^2</f>
-        <v>6.6550467581582295E-13</v>
+        <v>6.5454625057985031E-13</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -4059,7 +4059,7 @@
       </c>
       <c r="S6">
         <f>$I$3/(R6^0.59)</f>
-        <v>0.18519822313892223</v>
+        <v>0.18709174635180584</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.3">
@@ -4073,12 +4073,12 @@
         <v>200</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F10" si="0">$I$3/(E7^$I$4)</f>
-        <v>2.055131993333136E-5</v>
+        <f t="shared" ref="F7:F9" si="0">$I$3/(E7^$I$4)</f>
+        <v>2.0514153809208937E-5</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" ref="H7:H10" si="1">(C7-F7)^2</f>
-        <v>2.0986739355630522E-12</v>
+        <v>2.2077389026883093E-12</v>
       </c>
       <c r="O7">
         <v>100</v>
@@ -4103,18 +4103,18 @@
         <v>400</v>
       </c>
       <c r="C8" s="1">
-        <v>1.5999999999999999E-5</v>
+        <v>1.5800000000000001E-5</v>
       </c>
       <c r="E8">
         <v>400</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>1.5184067448252677E-5</v>
+        <v>1.5132866922435011E-5</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="1"/>
-        <v>6.6574592900089636E-13</v>
+        <v>4.4506654318133495E-13</v>
       </c>
       <c r="O8">
         <v>200</v>
@@ -4146,11 +4146,11 @@
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>1.2720197954440458E-5</v>
+        <v>1.2665685999162975E-5</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="1"/>
-        <v>5.1868509358021924E-13</v>
+        <v>4.4313784948160841E-13</v>
       </c>
       <c r="O9">
         <v>400</v>
@@ -4182,11 +4182,11 @@
       </c>
       <c r="F10">
         <f>$I$3/(E10^$I$4)</f>
-        <v>1.1218544843884073E-5</v>
+        <v>1.1163202899908382E-5</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="1"/>
-        <v>8.4372463022601716E-13</v>
+        <v>7.4511924641024004E-13</v>
       </c>
       <c r="O10">
         <v>600</v>
@@ -4212,7 +4212,7 @@
       </c>
       <c r="H11" s="1">
         <f>SUM(H6:H10)*10^13</f>
-        <v>47.923342641860081</v>
+        <v>44.956087923413421</v>
       </c>
       <c r="O11">
         <v>800</v>

--- a/RCE/RPMtoDelta.xlsx
+++ b/RCE/RPMtoDelta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexa\Documents\VSCode\Research\PMRModel\RCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D11E933-8054-4B1C-B5CC-C31D5E6FA8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBF9778-812F-419D-A1CA-0EBB68C56384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="7935" windowWidth="24240" windowHeight="13140" xr2:uid="{5C0E03CF-3BAB-4377-A482-84AC69AF0267}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16260" xr2:uid="{5C0E03CF-3BAB-4377-A482-84AC69AF0267}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3934,22 +3934,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24714F3-5E9E-4775-9E72-958E1772AAEE}">
   <dimension ref="B2:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="19" max="19" width="8.21875" customWidth="1"/>
+    <col min="19" max="19" width="8.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>2.0992039205430831E-4</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>4.5884488644206388E-4</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>0</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>100</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>0.18709174635180584</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>200</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>1.0993077449827809E-11</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>400</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>3.4598186701189624E-12</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>600</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>6.8653060417649066E-12</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>800</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>2.1517635167071776E-12</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.35">
       <c r="G11" t="s">
         <v>6</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>1.9915045493730039E-12</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.35">
       <c r="T12" t="s">
         <v>6</v>
       </c>
@@ -4241,12 +4241,12 @@
         <v>25.461470227791857</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>2</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>2.0251670502201865E-4</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>0</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>0.43593262419572049</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>100</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>2.5167509671518853E-13</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>200</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>7.9583484057259138E-13</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>400</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>1.9002689312023136E-13</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>600</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>6.5469762518284823E-14</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>800</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>4.7301561499413002E-13</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
       <c r="G45" t="s">
         <v>6</v>
       </c>

--- a/RCE/RPMtoDelta.xlsx
+++ b/RCE/RPMtoDelta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexa\Documents\VSCode\Research\PMRModel\RCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBF9778-812F-419D-A1CA-0EBB68C56384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF08B1B-CCBE-494D-8DD2-D51F4F38C2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16260" xr2:uid="{5C0E03CF-3BAB-4377-A482-84AC69AF0267}"/>
   </bookViews>
@@ -3934,8 +3934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24714F3-5E9E-4775-9E72-958E1772AAEE}">
   <dimension ref="B2:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/RCE/RPMtoDelta.xlsx
+++ b/RCE/RPMtoDelta.xlsx
@@ -8,41 +8,69 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexa\Documents\VSCode\Research\PMRModel\RCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF08B1B-CCBE-494D-8DD2-D51F4F38C2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F933E1E0-2D9B-48CA-9FD9-4C3D15D098A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16260" xr2:uid="{5C0E03CF-3BAB-4377-A482-84AC69AF0267}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{5C0E03CF-3BAB-4377-A482-84AC69AF0267}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$I$3,Sheet1!$I$4</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Sheet2!$I$3</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$H$11</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet2!$H$11</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="11">
   <si>
     <t>PRM</t>
   </si>
@@ -95,6 +123,9 @@
   </si>
   <si>
     <t>WITHOUT IR CORRECTION FOR V</t>
+  </si>
+  <si>
+    <t>New Diffusion coefficient 1.06e-9</t>
   </si>
 </sst>
 </file>
@@ -1680,6 +1711,512 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20259772030865808"/>
+          <c:y val="4.5146375933777509E-2"/>
+          <c:w val="0.74433643069497835"/>
+          <c:h val="0.8217540742189835"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Expements</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$6:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$6:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.0000000000000006E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1999999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8E1E-4FAC-A209-F5DE537DE5F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Relationship</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$6:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$6:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.1534579229440773E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0810348460725622E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0398923675015877E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1803575771869405E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6838738395880657E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8E1E-4FAC-A209-F5DE537DE5F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="278514464"/>
+        <c:axId val="278522624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="278514464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="800"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>RPM</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="278522624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="278522624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>thickness</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.4429967426710098E-2"/>
+              <c:y val="0.35672678012022691"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="278514464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.74793168459576365"/>
+          <c:y val="7.1886122930285873E-2"/>
+          <c:w val="0.19035525488891353"/>
+          <c:h val="0.13316487612961422"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1800,6 +2337,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2833,6 +3410,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3353,15 +4446,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>350520</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3607,6 +4700,49 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{626174E3-6821-4378-B313-421E57EA073C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3934,22 +5070,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24714F3-5E9E-4775-9E72-958E1772AAEE}">
   <dimension ref="B2:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="19" max="19" width="8.1796875" customWidth="1"/>
+    <col min="19" max="19" width="8.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -3963,7 +5099,7 @@
         <v>2.0992039205430831E-4</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -3995,7 +5131,7 @@
         <v>4.5884488644206388E-4</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>0</v>
       </c>
@@ -4029,7 +5165,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>100</v>
       </c>
@@ -4062,7 +5198,7 @@
         <v>0.18709174635180584</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>200</v>
       </c>
@@ -4098,7 +5234,7 @@
         <v>1.0993077449827809E-11</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>400</v>
       </c>
@@ -4134,7 +5270,7 @@
         <v>3.4598186701189624E-12</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>600</v>
       </c>
@@ -4170,7 +5306,7 @@
         <v>6.8653060417649066E-12</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>800</v>
       </c>
@@ -4206,7 +5342,7 @@
         <v>2.1517635167071776E-12</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="G11" t="s">
         <v>6</v>
       </c>
@@ -4232,7 +5368,7 @@
         <v>1.9915045493730039E-12</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
       <c r="T12" t="s">
         <v>6</v>
       </c>
@@ -4241,12 +5377,12 @@
         <v>25.461470227791857</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>2</v>
       </c>
@@ -4260,7 +5396,7 @@
         <v>2.0251670502201865E-4</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>0</v>
       </c>
@@ -4280,7 +5416,7 @@
         <v>0.43593262419572049</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>100</v>
       </c>
@@ -4299,7 +5435,7 @@
         <v>2.5167509671518853E-13</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>200</v>
       </c>
@@ -4318,7 +5454,7 @@
         <v>7.9583484057259138E-13</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>400</v>
       </c>
@@ -4337,7 +5473,7 @@
         <v>1.9002689312023136E-13</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>600</v>
       </c>
@@ -4356,7 +5492,7 @@
         <v>6.5469762518284823E-14</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>800</v>
       </c>
@@ -4375,13 +5511,178 @@
         <v>4.7301561499413002E-13</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G45" t="s">
         <v>6</v>
       </c>
       <c r="H45" s="1">
         <f>SUM(H40:H44)*10^13</f>
         <v>17.760222079204262</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76DA2E97-CBF0-4379-94C5-C5851C8D7625}">
+  <dimension ref="B2:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>1.3854319201359543E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <f>$I$3/(E6^$I$4)</f>
+        <v>9.1534579229440773E-5</v>
+      </c>
+      <c r="H6" s="1">
+        <f>(C6-F6)^2</f>
+        <v>2.35493341143102E-12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>200</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6.0999999999999999E-5</v>
+      </c>
+      <c r="E7">
+        <v>200</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7:F10" si="0">$I$3/(E7^$I$4)</f>
+        <v>6.0810348460725622E-5</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" ref="H7:H10" si="1">(C7-F7)^2</f>
+        <v>3.5967706349140396E-14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>400</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.1999999999999998E-5</v>
+      </c>
+      <c r="E8">
+        <v>400</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>4.0398923675015877E-5</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5634453984246581E-12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>600</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3.1999999999999999E-5</v>
+      </c>
+      <c r="E9">
+        <v>600</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>3.1803575771869405E-5</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8582477396699469E-14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>800</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.9E-5</v>
+      </c>
+      <c r="E10">
+        <v>800</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>2.6838738395880657E-5</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>4.671051721440518E-12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SUM(H6:H10)*10^12</f>
+        <v>9.6639807150420367</v>
       </c>
     </row>
   </sheetData>

--- a/RCE/RPMtoDelta.xlsx
+++ b/RCE/RPMtoDelta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexa\Documents\VSCode\Research\PMRModel\RCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F933E1E0-2D9B-48CA-9FD9-4C3D15D098A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A7C0E9-C8AC-4939-AE99-A13F995DE3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{5C0E03CF-3BAB-4377-A482-84AC69AF0267}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16260" activeTab="1" xr2:uid="{5C0E03CF-3BAB-4377-A482-84AC69AF0267}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5074,18 +5074,18 @@
       <selection activeCell="O3" sqref="O3:V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="19" max="19" width="8.21875" customWidth="1"/>
+    <col min="19" max="19" width="8.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>2.0992039205430831E-4</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>4.5884488644206388E-4</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>0</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>100</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>0.18709174635180584</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>200</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>1.0993077449827809E-11</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>400</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>3.4598186701189624E-12</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>600</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>6.8653060417649066E-12</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>800</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>2.1517635167071776E-12</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.35">
       <c r="G11" t="s">
         <v>6</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>1.9915045493730039E-12</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.35">
       <c r="T12" t="s">
         <v>6</v>
       </c>
@@ -5377,12 +5377,12 @@
         <v>25.461470227791857</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>2</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>2.0251670502201865E-4</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>0</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>0.43593262419572049</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>100</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>2.5167509671518853E-13</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>200</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>7.9583484057259138E-13</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>400</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>1.9002689312023136E-13</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>600</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>6.5469762518284823E-14</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>800</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>4.7301561499413002E-13</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
       <c r="G45" t="s">
         <v>6</v>
       </c>
@@ -5529,23 +5529,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76DA2E97-CBF0-4379-94C5-C5851C8D7625}">
-  <dimension ref="B2:I11"/>
+  <dimension ref="B2:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="H3" t="s">
         <v>4</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>1.3854319201359543E-3</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>100</v>
       </c>
@@ -5599,8 +5599,12 @@
         <f>(C6-F6)^2</f>
         <v>2.35493341143102E-12</v>
       </c>
+      <c r="M6">
+        <f>(0.001/I3)^(1/I4)</f>
+        <v>0.57547319916736295</v>
+      </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>200</v>
       </c>
@@ -5611,15 +5615,15 @@
         <v>200</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F10" si="0">$I$3/(E7^$I$4)</f>
+        <f>$I$3/(E7^$I$4)</f>
         <v>6.0810348460725622E-5</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" ref="H7:H10" si="1">(C7-F7)^2</f>
+        <f t="shared" ref="H7:H10" si="0">(C7-F7)^2</f>
         <v>3.5967706349140396E-14</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>400</v>
       </c>
@@ -5630,15 +5634,15 @@
         <v>400</v>
       </c>
       <c r="F8">
+        <f t="shared" ref="F7:F11" si="1">$I$3/(E8^$I$4)</f>
+        <v>4.0398923675015877E-5</v>
+      </c>
+      <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>4.0398923675015877E-5</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="1"/>
         <v>2.5634453984246581E-12</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>600</v>
       </c>
@@ -5649,15 +5653,15 @@
         <v>600</v>
       </c>
       <c r="F9">
+        <f t="shared" si="1"/>
+        <v>3.1803575771869405E-5</v>
+      </c>
+      <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>3.1803575771869405E-5</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="1"/>
         <v>3.8582477396699469E-14</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>800</v>
       </c>
@@ -5668,15 +5672,15 @@
         <v>800</v>
       </c>
       <c r="F10">
+        <f t="shared" si="1"/>
+        <v>2.6838738395880657E-5</v>
+      </c>
+      <c r="H10" s="1">
         <f t="shared" si="0"/>
-        <v>2.6838738395880657E-5</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" si="1"/>
         <v>4.671051721440518E-12</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="G11" t="s">
         <v>6</v>
       </c>

--- a/RCE/RPMtoDelta.xlsx
+++ b/RCE/RPMtoDelta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexa\Documents\VSCode\Research\PMRModel\RCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A7C0E9-C8AC-4939-AE99-A13F995DE3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FA45B1-E84C-4696-BFCC-16A015100674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16260" activeTab="1" xr2:uid="{5C0E03CF-3BAB-4377-A482-84AC69AF0267}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16260" xr2:uid="{5C0E03CF-3BAB-4377-A482-84AC69AF0267}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -651,6 +651,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -658,7 +659,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1163,6 +1163,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1170,7 +1171,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1669,6 +1669,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1676,7 +1677,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2175,6 +2175,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2182,7 +2183,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5070,8 +5070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24714F3-5E9E-4775-9E72-958E1772AAEE}">
   <dimension ref="B2:V45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:V12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5531,7 +5531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76DA2E97-CBF0-4379-94C5-C5851C8D7625}">
   <dimension ref="B2:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
@@ -5634,7 +5634,7 @@
         <v>400</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F7:F11" si="1">$I$3/(E8^$I$4)</f>
+        <f t="shared" ref="F8:F10" si="1">$I$3/(E8^$I$4)</f>
         <v>4.0398923675015877E-5</v>
       </c>
       <c r="H8" s="1">

--- a/RCE/RPMtoDelta.xlsx
+++ b/RCE/RPMtoDelta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexa\Documents\VSCode\Research\PMRModel\RCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FA45B1-E84C-4696-BFCC-16A015100674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D000E7AB-FD64-4178-81C7-E861530261D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16260" xr2:uid="{5C0E03CF-3BAB-4377-A482-84AC69AF0267}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{5C0E03CF-3BAB-4377-A482-84AC69AF0267}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5070,22 +5070,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24714F3-5E9E-4775-9E72-958E1772AAEE}">
   <dimension ref="B2:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="19" max="19" width="8.1796875" customWidth="1"/>
+    <col min="19" max="19" width="8.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>2.0992039205430831E-4</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>4.5884488644206388E-4</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>0</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>100</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>0.18709174635180584</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>200</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>1.0993077449827809E-11</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>400</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>3.4598186701189624E-12</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>600</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>6.8653060417649066E-12</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>800</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>2.1517635167071776E-12</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="G11" t="s">
         <v>6</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>1.9915045493730039E-12</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
       <c r="T12" t="s">
         <v>6</v>
       </c>
@@ -5377,12 +5377,12 @@
         <v>25.461470227791857</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>2</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>2.0251670502201865E-4</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>0</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>0.43593262419572049</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>100</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>2.5167509671518853E-13</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>200</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>7.9583484057259138E-13</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>400</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>1.9002689312023136E-13</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>600</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>6.5469762518284823E-14</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>800</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>4.7301561499413002E-13</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G45" t="s">
         <v>6</v>
       </c>
@@ -5531,21 +5531,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76DA2E97-CBF0-4379-94C5-C5851C8D7625}">
   <dimension ref="B2:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="8.90625" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="H3" t="s">
         <v>4</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>1.3854319201359543E-3</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>100</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>0.57547319916736295</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>200</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>3.5967706349140396E-14</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>400</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>2.5634453984246581E-12</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>600</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>3.8582477396699469E-14</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>800</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>4.671051721440518E-12</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="G11" t="s">
         <v>6</v>
       </c>

--- a/RCE/RPMtoDelta.xlsx
+++ b/RCE/RPMtoDelta.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexa\Documents\VSCode\Research\PMRModel\RCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D000E7AB-FD64-4178-81C7-E861530261D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0935EE-C6F5-43E1-8A4A-8B184C194F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{5C0E03CF-3BAB-4377-A482-84AC69AF0267}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5C0E03CF-3BAB-4377-A482-84AC69AF0267}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$I$3,Sheet1!$I$4</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$I$3:$I$4</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">Sheet2!$I$3</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
@@ -273,22 +273,22 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000002E-5</c:v>
+                  <c:v>2.0000000000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6999999999999999E-5</c:v>
+                  <c:v>9.0000000000000002E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1999999999999999E-5</c:v>
+                  <c:v>6.4999999999999996E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5800000000000001E-5</c:v>
+                  <c:v>5.0000000000000004E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2E-5</c:v>
+                  <c:v>4.7999999999999998E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.03E-5</c:v>
+                  <c:v>4.5000000000000001E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,19 +359,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.7809040326918163E-5</c:v>
+                  <c:v>8.7618118999595704E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0514153809208937E-5</c:v>
+                  <c:v>6.8452455850147119E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5132866922435011E-5</c:v>
+                  <c:v>5.3479106438452083E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2665685999162975E-5</c:v>
+                  <c:v>4.6288520592027599E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1163202899908382E-5</c:v>
+                  <c:v>4.1781040430693909E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -785,22 +785,22 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000002E-5</c:v>
+                  <c:v>2.0000000000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6999999999999999E-5</c:v>
+                  <c:v>9.0000000000000002E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1999999999999999E-5</c:v>
+                  <c:v>6.4999999999999996E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5999999999999999E-5</c:v>
+                  <c:v>5.0000000000000004E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2E-5</c:v>
+                  <c:v>4.7999999999999998E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.03E-5</c:v>
+                  <c:v>4.5000000000000001E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -871,19 +871,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.0315581012406091E-5</c:v>
+                  <c:v>9.3141738082554477E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0139941218638786E-5</c:v>
+                  <c:v>6.8467901909118255E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3379827096971478E-5</c:v>
+                  <c:v>5.0330321167956349E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0533110939195749E-5</c:v>
+                  <c:v>4.2038303636232532E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.8887932294050582E-6</c:v>
+                  <c:v>3.6997500408761351E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5070,8 +5070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24714F3-5E9E-4775-9E72-958E1772AAEE}">
   <dimension ref="B2:V45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5096,7 +5096,7 @@
         <v>4</v>
       </c>
       <c r="I3">
-        <v>2.0992039205430831E-4</v>
+        <v>4.5169762618109925E-5</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
@@ -5116,7 +5116,7 @@
         <v>7</v>
       </c>
       <c r="I4">
-        <v>0.43893431345751921</v>
+        <v>0.3561269413859543</v>
       </c>
       <c r="O4" t="s">
         <v>2</v>
@@ -5128,7 +5128,7 @@
         <v>4</v>
       </c>
       <c r="V4">
-        <v>4.5884488644206388E-4</v>
+        <v>7.196881267845887E-5</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
@@ -5136,15 +5136,15 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <f>0.00005</f>
-        <v>5.0000000000000002E-5</v>
+        <f>0.00002</f>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="E5">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F5">
         <f>$I$3/(E5^0.59)</f>
-        <v>0.18709174635180584</v>
+        <v>4.0257593308669036E-2</v>
       </c>
       <c r="O5" t="s">
         <v>0</v>
@@ -5162,7 +5162,7 @@
         <v>7</v>
       </c>
       <c r="V5">
-        <v>0.59</v>
+        <v>0.44400000000000001</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.3">
@@ -5170,32 +5170,31 @@
         <v>100</v>
       </c>
       <c r="C6" s="1">
-        <v>2.6999999999999999E-5</v>
+        <v>9.0000000000000002E-6</v>
       </c>
       <c r="E6">
         <v>100</v>
       </c>
       <c r="F6">
         <f>$I$3/(E6^$I$4)</f>
-        <v>2.7809040326918163E-5</v>
+        <v>8.7618118999595704E-6</v>
       </c>
       <c r="H6" s="1">
         <f>(C6-F6)^2</f>
-        <v>6.5454625057985031E-13</v>
+        <v>5.6733571000869826E-14</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <f>0.00005</f>
-        <v>5.0000000000000002E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="R6">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="S6">
         <f>$I$3/(R6^0.59)</f>
-        <v>0.18709174635180584</v>
+        <v>4.0257593308669036E-2</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.3">
@@ -5203,35 +5202,35 @@
         <v>200</v>
       </c>
       <c r="C7" s="1">
-        <v>2.1999999999999999E-5</v>
+        <v>6.4999999999999996E-6</v>
       </c>
       <c r="E7">
         <v>200</v>
       </c>
       <c r="F7">
         <f t="shared" ref="F7:F9" si="0">$I$3/(E7^$I$4)</f>
-        <v>2.0514153809208937E-5</v>
+        <v>6.8452455850147119E-6</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" ref="H7:H10" si="1">(C7-F7)^2</f>
-        <v>2.2077389026883093E-12</v>
+        <v>1.1919451397215094E-13</v>
       </c>
       <c r="O7">
         <v>100</v>
       </c>
       <c r="P7" s="1">
-        <v>2.6999999999999999E-5</v>
+        <v>9.0000000000000002E-6</v>
       </c>
       <c r="R7">
         <v>100</v>
       </c>
       <c r="S7">
         <f>$V$4/(R7^$V$5)</f>
-        <v>3.0315581012406091E-5</v>
+        <v>9.3141738082554477E-6</v>
       </c>
       <c r="U7" s="1">
         <f>(P7-S7)^2</f>
-        <v>1.0993077449827809E-11</v>
+        <v>9.8705181793730707E-14</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
@@ -5239,35 +5238,35 @@
         <v>400</v>
       </c>
       <c r="C8" s="1">
-        <v>1.5800000000000001E-5</v>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="E8">
         <v>400</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>1.5132866922435011E-5</v>
+        <v>5.3479106438452083E-6</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="1"/>
-        <v>4.4506654318133495E-13</v>
+        <v>1.2104181610078707E-13</v>
       </c>
       <c r="O8">
         <v>200</v>
       </c>
       <c r="P8" s="1">
-        <v>2.1999999999999999E-5</v>
+        <v>6.4999999999999996E-6</v>
       </c>
       <c r="R8">
         <v>200</v>
       </c>
       <c r="S8">
         <f t="shared" ref="S8:S11" si="2">$V$4/(R8^$V$5)</f>
-        <v>2.0139941218638786E-5</v>
+        <v>6.8467901909118255E-6</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" ref="U8:U11" si="3">(P8-S8)^2</f>
-        <v>3.4598186701189624E-12</v>
+        <v>1.2026343651266066E-13</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.3">
@@ -5275,35 +5274,35 @@
         <v>600</v>
       </c>
       <c r="C9" s="1">
-        <v>1.2E-5</v>
+        <v>4.7999999999999998E-6</v>
       </c>
       <c r="E9">
         <v>600</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>1.2665685999162975E-5</v>
+        <v>4.6288520592027599E-6</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="1"/>
-        <v>4.4313784948160841E-13</v>
+        <v>2.9291617639135528E-14</v>
       </c>
       <c r="O9">
         <v>400</v>
       </c>
       <c r="P9" s="1">
-        <v>1.5999999999999999E-5</v>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="R9">
         <v>400</v>
       </c>
       <c r="S9">
         <f t="shared" si="2"/>
-        <v>1.3379827096971478E-5</v>
+        <v>5.0330321167956349E-6</v>
       </c>
       <c r="U9" s="1">
         <f t="shared" si="3"/>
-        <v>6.8653060417649066E-12</v>
+        <v>1.0911207400004413E-15</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.3">
@@ -5311,35 +5310,35 @@
         <v>800</v>
       </c>
       <c r="C10" s="1">
-        <v>1.03E-5</v>
+        <v>4.5000000000000001E-6</v>
       </c>
       <c r="E10">
         <v>800</v>
       </c>
       <c r="F10">
         <f>$I$3/(E10^$I$4)</f>
-        <v>1.1163202899908382E-5</v>
+        <v>4.1781040430693909E-6</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="1"/>
-        <v>7.4511924641024004E-13</v>
+        <v>1.0361700708827265E-13</v>
       </c>
       <c r="O10">
         <v>600</v>
       </c>
       <c r="P10" s="1">
-        <v>1.2E-5</v>
+        <v>4.7999999999999998E-6</v>
       </c>
       <c r="R10">
         <v>600</v>
       </c>
       <c r="S10">
         <f t="shared" si="2"/>
-        <v>1.0533110939195749E-5</v>
+        <v>4.2038303636232532E-6</v>
       </c>
       <c r="U10" s="1">
         <f t="shared" si="3"/>
-        <v>2.1517635167071776E-12</v>
+        <v>3.5541823533758222E-13</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
@@ -5348,24 +5347,24 @@
       </c>
       <c r="H11" s="1">
         <f>SUM(H6:H10)*10^13</f>
-        <v>44.956087923413421</v>
+        <v>4.2987852580121597</v>
       </c>
       <c r="O11">
         <v>800</v>
       </c>
       <c r="P11" s="1">
-        <v>1.03E-5</v>
+        <v>4.5000000000000001E-6</v>
       </c>
       <c r="R11">
         <v>800</v>
       </c>
       <c r="S11">
         <f t="shared" si="2"/>
-        <v>8.8887932294050582E-6</v>
+        <v>3.6997500408761351E-6</v>
       </c>
       <c r="U11" s="1">
         <f t="shared" si="3"/>
-        <v>1.9915045493730039E-12</v>
+        <v>6.4039999707774768E-13</v>
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.3">
@@ -5373,8 +5372,8 @@
         <v>6</v>
       </c>
       <c r="U12" s="1">
-        <f>SUM(U7:U11)*10^12</f>
-        <v>25.461470227791857</v>
+        <f>SUM(U7:U11)*10^13</f>
+        <v>12.158779714617218</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
@@ -5531,7 +5530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76DA2E97-CBF0-4379-94C5-C5851C8D7625}">
   <dimension ref="B2:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
